--- a/Code/Results/Cases/Case_4_70/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_70/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.020050167277361</v>
+        <v>0.3757806455830632</v>
       </c>
       <c r="C2">
-        <v>0.186182068465115</v>
+        <v>0.05882550405871712</v>
       </c>
       <c r="D2">
-        <v>0.5538801334127754</v>
+        <v>0.6536584357451716</v>
       </c>
       <c r="E2">
-        <v>0.2473512228584269</v>
+        <v>0.2667908287872081</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4058607644296188</v>
+        <v>0.7580791313857489</v>
       </c>
       <c r="H2">
-        <v>0.3457695406146399</v>
+        <v>0.8544282641165424</v>
       </c>
       <c r="I2">
-        <v>0.2889539042900928</v>
+        <v>0.6717967527746538</v>
       </c>
       <c r="J2">
-        <v>0.1465870231311612</v>
+        <v>0.1390105253164009</v>
       </c>
       <c r="K2">
-        <v>1.150265628144837</v>
+        <v>0.4069373316475264</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.531824666311607</v>
+        <v>3.235120941222391</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8880881099843236</v>
+        <v>0.3354796680974914</v>
       </c>
       <c r="C3">
-        <v>0.1628313370178063</v>
+        <v>0.05160864674414256</v>
       </c>
       <c r="D3">
-        <v>0.4996499956366165</v>
+        <v>0.6430604655866148</v>
       </c>
       <c r="E3">
-        <v>0.2218727773881497</v>
+        <v>0.261602815138879</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3981166647895833</v>
+        <v>0.7628159505464822</v>
       </c>
       <c r="H3">
-        <v>0.3487820544476108</v>
+        <v>0.8608410223957037</v>
       </c>
       <c r="I3">
-        <v>0.2966566223627503</v>
+        <v>0.6791021183086272</v>
       </c>
       <c r="J3">
-        <v>0.1305365475526798</v>
+        <v>0.1355803821831572</v>
       </c>
       <c r="K3">
-        <v>1.002221468588772</v>
+        <v>0.3615691372934862</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.521310455381936</v>
+        <v>3.258303670722526</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8071074841156189</v>
+        <v>0.310730474835907</v>
       </c>
       <c r="C4">
-        <v>0.1484992472872619</v>
+        <v>0.04716611989339015</v>
       </c>
       <c r="D4">
-        <v>0.4669649676908136</v>
+        <v>0.6368812712590284</v>
       </c>
       <c r="E4">
-        <v>0.2065088703021658</v>
+        <v>0.2585573361517319</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3943839178968815</v>
+        <v>0.7662127791840945</v>
       </c>
       <c r="H4">
-        <v>0.3512543944350242</v>
+        <v>0.8651462665618084</v>
       </c>
       <c r="I4">
-        <v>0.3020849384313316</v>
+        <v>0.6839504632040629</v>
       </c>
       <c r="J4">
-        <v>0.1208520606325365</v>
+        <v>0.1335514430322533</v>
       </c>
       <c r="K4">
-        <v>0.9113645661999215</v>
+        <v>0.3336912573301447</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.518315013028854</v>
+        <v>3.274333397602078</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7741084614505951</v>
+        <v>0.3006445635429884</v>
       </c>
       <c r="C5">
-        <v>0.1426581170607051</v>
+        <v>0.04535299568922824</v>
       </c>
       <c r="D5">
-        <v>0.4537887450120479</v>
+        <v>0.6344458353563311</v>
       </c>
       <c r="E5">
-        <v>0.2003130472902868</v>
+        <v>0.2573515281882877</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.393107520079127</v>
+        <v>0.7677197342942534</v>
       </c>
       <c r="H5">
-        <v>0.3524130447583289</v>
+        <v>0.866993218043973</v>
       </c>
       <c r="I5">
-        <v>0.3044662908873761</v>
+        <v>0.6860174023932828</v>
       </c>
       <c r="J5">
-        <v>0.116944921364265</v>
+        <v>0.1327440543458209</v>
       </c>
       <c r="K5">
-        <v>0.8743388747539029</v>
+        <v>0.3223260556349317</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.517927028235974</v>
+        <v>3.281317013569961</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7686287937712279</v>
+        <v>0.2989697998208669</v>
       </c>
       <c r="C6">
-        <v>0.1416881033322426</v>
+        <v>0.04505176399733557</v>
       </c>
       <c r="D6">
-        <v>0.4516091856191338</v>
+        <v>0.63404642872473</v>
       </c>
       <c r="E6">
-        <v>0.1992880171662463</v>
+        <v>0.2571534351454687</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3929100074966598</v>
+        <v>0.7679773722979277</v>
       </c>
       <c r="H6">
-        <v>0.3526144135303895</v>
+        <v>0.8673054928777049</v>
       </c>
       <c r="I6">
-        <v>0.3048717530923071</v>
+        <v>0.6863661232601999</v>
       </c>
       <c r="J6">
-        <v>0.1162984220290753</v>
+        <v>0.1326111613868264</v>
       </c>
       <c r="K6">
-        <v>0.868190417111947</v>
+        <v>0.320438606934772</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.517911834853521</v>
+        <v>3.282503896389159</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8066624554845703</v>
+        <v>0.3105944535222704</v>
       </c>
       <c r="C7">
-        <v>0.1484204771402915</v>
+        <v>0.04714167850998763</v>
       </c>
       <c r="D7">
-        <v>0.4667867026753925</v>
+        <v>0.6368480913195071</v>
       </c>
       <c r="E7">
-        <v>0.2064250545176876</v>
+        <v>0.2585409314137124</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3943657288893618</v>
+        <v>0.7662326057439088</v>
       </c>
       <c r="H7">
-        <v>0.3512694153564553</v>
+        <v>0.8651708004853731</v>
       </c>
       <c r="I7">
-        <v>0.3021163771248148</v>
+        <v>0.6839779694535437</v>
       </c>
       <c r="J7">
-        <v>0.1207992127118871</v>
+        <v>0.1335404756562681</v>
       </c>
       <c r="K7">
-        <v>0.9108652426092192</v>
+        <v>0.3335380005069055</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.518306457197198</v>
+        <v>3.274425753644962</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9745341580126592</v>
+        <v>0.3618861230415575</v>
       </c>
       <c r="C8">
-        <v>0.1781283544124506</v>
+        <v>0.05633954143590358</v>
       </c>
       <c r="D8">
-        <v>0.5350477552496784</v>
+        <v>0.6499362681628043</v>
       </c>
       <c r="E8">
-        <v>0.2385048638383012</v>
+        <v>0.2649729759241453</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4029708557203122</v>
+        <v>0.7596109619683133</v>
       </c>
       <c r="H8">
-        <v>0.3466756822020685</v>
+        <v>0.8565630776064737</v>
       </c>
       <c r="I8">
-        <v>0.2914607851062847</v>
+        <v>0.6742403186285415</v>
       </c>
       <c r="J8">
-        <v>0.1410152350078917</v>
+        <v>0.1378117986937681</v>
       </c>
       <c r="K8">
-        <v>1.099203913695249</v>
+        <v>0.3912992709146579</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.527458066412322</v>
+        <v>3.242741637947944</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.30458047741206</v>
+        <v>0.4624118025501502</v>
       </c>
       <c r="C9">
-        <v>0.2365289278203306</v>
+        <v>0.07428318741399664</v>
       </c>
       <c r="D9">
-        <v>0.6742901106125032</v>
+        <v>0.6781998659370458</v>
       </c>
       <c r="E9">
-        <v>0.3038907772154147</v>
+        <v>0.2786956786062476</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4285422527288887</v>
+        <v>0.7505059007826986</v>
       </c>
       <c r="H9">
-        <v>0.3428657893580009</v>
+        <v>0.8425996096292323</v>
       </c>
       <c r="I9">
-        <v>0.2764159264235317</v>
+        <v>0.6580251738194356</v>
       </c>
       <c r="J9">
-        <v>0.1821823216299592</v>
+        <v>0.1468003282414472</v>
       </c>
       <c r="K9">
-        <v>1.469448589431948</v>
+        <v>0.5043722343807815</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.574644634216241</v>
+        <v>3.194861364887601</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.548344422649535</v>
+        <v>0.5362088511320167</v>
       </c>
       <c r="C10">
-        <v>0.2796781243932287</v>
+        <v>0.08740633325083991</v>
       </c>
       <c r="D10">
-        <v>0.7806532556117247</v>
+        <v>0.700545353938594</v>
       </c>
       <c r="E10">
-        <v>0.3538225856189143</v>
+        <v>0.2894539238432117</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4534963257123081</v>
+        <v>0.7461890025880251</v>
       </c>
       <c r="H10">
-        <v>0.3436161650549252</v>
+        <v>0.8341160146950699</v>
       </c>
       <c r="I10">
-        <v>0.2693782047670403</v>
+        <v>0.6478699235451835</v>
       </c>
       <c r="J10">
-        <v>0.2136106667130946</v>
+        <v>0.1537785785617984</v>
       </c>
       <c r="K10">
-        <v>1.742902281278589</v>
+        <v>0.5873014490630908</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.62976979091664</v>
+        <v>3.168382915353362</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.659700205896428</v>
+        <v>0.569763506694926</v>
       </c>
       <c r="C11">
-        <v>0.2993980150878883</v>
+        <v>0.0933627681798157</v>
       </c>
       <c r="D11">
-        <v>0.8301088730768527</v>
+        <v>0.711053492435866</v>
       </c>
       <c r="E11">
-        <v>0.3770402540085911</v>
+        <v>0.2944950012080696</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4663933945559648</v>
+        <v>0.7447419307005703</v>
       </c>
       <c r="H11">
-        <v>0.344818869642836</v>
+        <v>0.8306416187794383</v>
       </c>
       <c r="I11">
-        <v>0.2671550609477933</v>
+        <v>0.6436322298214208</v>
       </c>
       <c r="J11">
-        <v>0.2282259130937803</v>
+        <v>0.1570347245516928</v>
       </c>
       <c r="K11">
-        <v>1.867827245749169</v>
+        <v>0.6249916142176346</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.659915926174818</v>
+        <v>3.158228605317902</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.701950842955057</v>
+        <v>0.5824669272318772</v>
       </c>
       <c r="C12">
-        <v>0.3068818490539513</v>
+        <v>0.0956163177064866</v>
       </c>
       <c r="D12">
-        <v>0.8490068937211959</v>
+        <v>0.7150818713779472</v>
       </c>
       <c r="E12">
-        <v>0.3859127010595671</v>
+        <v>0.2964250504884305</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4715178511806073</v>
+        <v>0.7442683835499793</v>
       </c>
       <c r="H12">
-        <v>0.3454063158421974</v>
+        <v>0.8293812568708177</v>
       </c>
       <c r="I12">
-        <v>0.2664634791934724</v>
+        <v>0.6420824984156823</v>
       </c>
       <c r="J12">
-        <v>0.2338115248335839</v>
+        <v>0.1582794932083971</v>
       </c>
       <c r="K12">
-        <v>1.915227812437564</v>
+        <v>0.6392583100661113</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.672116676054344</v>
+        <v>3.154655519383113</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.692847477198029</v>
+        <v>0.5797311628316208</v>
       </c>
       <c r="C13">
-        <v>0.3052692903807213</v>
+        <v>0.09513106711469277</v>
       </c>
       <c r="D13">
-        <v>0.8449290222824288</v>
+        <v>0.7142121033348019</v>
       </c>
       <c r="E13">
-        <v>0.3839981499767902</v>
+        <v>0.2960084420908444</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4704031991774968</v>
+        <v>0.7443670582206039</v>
       </c>
       <c r="H13">
-        <v>0.3452737916783377</v>
+        <v>0.8296502384961002</v>
       </c>
       <c r="I13">
-        <v>0.2666055803244483</v>
+        <v>0.6424138140508298</v>
       </c>
       <c r="J13">
-        <v>0.232606199502257</v>
+        <v>0.1580108882044868</v>
       </c>
       <c r="K13">
-        <v>1.905014760438917</v>
+        <v>0.6361859896439626</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.669453174180148</v>
+        <v>3.155412940681856</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.663174442035853</v>
+        <v>0.5708086888566584</v>
       </c>
       <c r="C14">
-        <v>0.3000133676470114</v>
+        <v>0.09354821019195469</v>
       </c>
       <c r="D14">
-        <v>0.8316601148103473</v>
+        <v>0.7113839249591365</v>
       </c>
       <c r="E14">
-        <v>0.3777685357448419</v>
+        <v>0.2946533648806948</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4668100542897946</v>
+        <v>0.7447014793345375</v>
       </c>
       <c r="H14">
-        <v>0.3448645047997587</v>
+        <v>0.8305368195492662</v>
       </c>
       <c r="I14">
-        <v>0.2670950950610695</v>
+        <v>0.6435036300195627</v>
       </c>
       <c r="J14">
-        <v>0.2286843877767808</v>
+        <v>0.1571368972650333</v>
       </c>
       <c r="K14">
-        <v>1.871724922689737</v>
+        <v>0.6261654634562035</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.660903619787007</v>
+        <v>3.157929190186508</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.645010092799595</v>
+        <v>0.5653430045993559</v>
       </c>
       <c r="C15">
-        <v>0.2967961917294986</v>
+        <v>0.09257839809225743</v>
       </c>
       <c r="D15">
-        <v>0.8235552021497483</v>
+        <v>0.7096579833980741</v>
       </c>
       <c r="E15">
-        <v>0.3739634384978814</v>
+        <v>0.293826087673466</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4646410531555745</v>
+        <v>0.7449160183097092</v>
       </c>
       <c r="H15">
-        <v>0.3446312479012619</v>
+        <v>0.8310870792203389</v>
       </c>
       <c r="I15">
-        <v>0.2674148031553258</v>
+        <v>0.6441783371168199</v>
       </c>
       <c r="J15">
-        <v>0.2262889900625566</v>
+        <v>0.1566030806950351</v>
       </c>
       <c r="K15">
-        <v>1.851346762411367</v>
+        <v>0.6200268304409349</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.655770742258341</v>
+        <v>3.159505911837527</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.541077747427437</v>
+        <v>0.5340155938061173</v>
       </c>
       <c r="C16">
-        <v>0.2783914872830451</v>
+        <v>0.08701678873549668</v>
       </c>
       <c r="D16">
-        <v>0.7774441237972098</v>
+        <v>0.6998655122677064</v>
       </c>
       <c r="E16">
-        <v>0.3523160596545623</v>
+        <v>0.2891274333139791</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4526861113584602</v>
+        <v>0.7462939803667155</v>
       </c>
       <c r="H16">
-        <v>0.3435555813439777</v>
+        <v>0.8343508165737177</v>
       </c>
       <c r="I16">
-        <v>0.269543984039025</v>
+        <v>0.6481545585987938</v>
       </c>
       <c r="J16">
-        <v>0.2126623807718602</v>
+        <v>0.1535674248348045</v>
       </c>
       <c r="K16">
-        <v>1.734750307514702</v>
+        <v>0.5848375442858469</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.627906384101323</v>
+        <v>3.169084591874963</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.477448761870079</v>
+        <v>0.5147926473535733</v>
       </c>
       <c r="C17">
-        <v>0.2671263536025492</v>
+        <v>0.08360142857102915</v>
       </c>
       <c r="D17">
-        <v>0.7494418924169679</v>
+        <v>0.693945903573649</v>
       </c>
       <c r="E17">
-        <v>0.3391705649396783</v>
+        <v>0.2862826009600283</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4457606262899247</v>
+        <v>0.7472717461647704</v>
       </c>
       <c r="H17">
-        <v>0.3431219240818706</v>
+        <v>0.8364515630062925</v>
       </c>
       <c r="I17">
-        <v>0.2711073634994428</v>
+        <v>0.6506917208353471</v>
       </c>
       <c r="J17">
-        <v>0.2043881197131867</v>
+        <v>0.1517260662463542</v>
       </c>
       <c r="K17">
-        <v>1.663370187662963</v>
+        <v>0.5632406186834658</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.612149574382215</v>
+        <v>3.175445260046388</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.440893946217415</v>
+        <v>0.5037346533906941</v>
       </c>
       <c r="C18">
-        <v>0.2606553127679092</v>
+        <v>0.08163575333061601</v>
       </c>
       <c r="D18">
-        <v>0.7334354646841632</v>
+        <v>0.6905734014506777</v>
       </c>
       <c r="E18">
-        <v>0.3316564959125827</v>
+        <v>0.2846601771544854</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4419215487736636</v>
+        <v>0.7478827585989904</v>
       </c>
       <c r="H18">
-        <v>0.3429530497425475</v>
+        <v>0.8376960804887688</v>
       </c>
       <c r="I18">
-        <v>0.2720980530753181</v>
+        <v>0.6521869795048438</v>
       </c>
       <c r="J18">
-        <v>0.1996586030943917</v>
+        <v>0.1506746566880111</v>
       </c>
       <c r="K18">
-        <v>1.622362908933582</v>
+        <v>0.5508154123265285</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.603560247126524</v>
+        <v>3.179281712242528</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.428524025897019</v>
+        <v>0.4999903766273519</v>
       </c>
       <c r="C19">
-        <v>0.2584656719902227</v>
+        <v>0.0809699978681806</v>
       </c>
       <c r="D19">
-        <v>0.7280326112520754</v>
+        <v>0.6894370825580154</v>
       </c>
       <c r="E19">
-        <v>0.3291201764297824</v>
+        <v>0.2841132323397133</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.440645943376623</v>
+        <v>0.7480979848728282</v>
       </c>
       <c r="H19">
-        <v>0.3429094681374494</v>
+        <v>0.8381236748645193</v>
       </c>
       <c r="I19">
-        <v>0.2724489129729406</v>
+        <v>0.6526994209398751</v>
       </c>
       <c r="J19">
-        <v>0.1980622003366648</v>
+        <v>0.1503199888171594</v>
       </c>
       <c r="K19">
-        <v>1.608486382020061</v>
+        <v>0.5466079199275953</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.600731740252087</v>
+        <v>3.180611227645215</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.484217627704766</v>
+        <v>0.5168391193734294</v>
       </c>
       <c r="C20">
-        <v>0.2683246578298224</v>
+        <v>0.0839651296534214</v>
       </c>
       <c r="D20">
-        <v>0.7524123431508656</v>
+        <v>0.6945727142106932</v>
       </c>
       <c r="E20">
-        <v>0.3405650179545745</v>
+        <v>0.2865840053109281</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4464827945871832</v>
+        <v>0.7471626276576444</v>
       </c>
       <c r="H20">
-        <v>0.3431596934534298</v>
+        <v>0.8362241861066622</v>
       </c>
       <c r="I20">
-        <v>0.2709314044072926</v>
+        <v>0.6504179144313653</v>
       </c>
       <c r="J20">
-        <v>0.2052658258657516</v>
+        <v>0.1519212860896317</v>
       </c>
       <c r="K20">
-        <v>1.670963558925678</v>
+        <v>0.5655399876342528</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.613777507014362</v>
+        <v>3.17474973579877</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.671887759536844</v>
+        <v>0.5734295227099153</v>
       </c>
       <c r="C21">
-        <v>0.3015566889786214</v>
+        <v>0.09401318936772896</v>
       </c>
       <c r="D21">
-        <v>0.8355527580458499</v>
+        <v>0.712213296164748</v>
       </c>
       <c r="E21">
-        <v>0.3795960749660665</v>
+        <v>0.2950508115820227</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4678587646004218</v>
+        <v>0.7446012308053866</v>
       </c>
       <c r="H21">
-        <v>0.3449810717714996</v>
+        <v>0.8302749081064889</v>
       </c>
       <c r="I21">
-        <v>0.2669471545581708</v>
+        <v>0.6431820317044448</v>
       </c>
       <c r="J21">
-        <v>0.2298348864421342</v>
+        <v>0.1573932911540936</v>
       </c>
       <c r="K21">
-        <v>1.881500247727701</v>
+        <v>0.6291088969975931</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.66339305780312</v>
+        <v>3.157182719359213</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.795030702427539</v>
+        <v>0.6103968177155821</v>
       </c>
       <c r="C22">
-        <v>0.3233726791108325</v>
+        <v>0.1005683373689408</v>
       </c>
       <c r="D22">
-        <v>0.8908906278279858</v>
+        <v>0.7240289922134195</v>
       </c>
       <c r="E22">
-        <v>0.4055780362046448</v>
+        <v>0.3007073382543766</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4832412001354101</v>
+        <v>0.7433610885731952</v>
       </c>
       <c r="H22">
-        <v>0.3469451043531961</v>
+        <v>0.8267091273886535</v>
       </c>
       <c r="I22">
-        <v>0.265224074379109</v>
+        <v>0.6387735242383599</v>
       </c>
       <c r="J22">
-        <v>0.2461930255365559</v>
+        <v>0.161037968238162</v>
       </c>
       <c r="K22">
-        <v>2.019656587899703</v>
+        <v>0.6706209805712433</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.70042461894937</v>
+        <v>3.147287950124621</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.729256733967219</v>
+        <v>0.5906685362753308</v>
       </c>
       <c r="C23">
-        <v>0.31171906419371</v>
+        <v>0.09707084890601436</v>
       </c>
       <c r="D23">
-        <v>0.8612584852538703</v>
+        <v>0.7176965650274951</v>
       </c>
       <c r="E23">
-        <v>0.3916648941448813</v>
+        <v>0.2976771074120421</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4748956779904461</v>
+        <v>0.7439832345256292</v>
       </c>
       <c r="H23">
-        <v>0.3458232260585135</v>
+        <v>0.8285827578016551</v>
       </c>
       <c r="I23">
-        <v>0.2660597702377352</v>
+        <v>0.6410970755879255</v>
       </c>
       <c r="J23">
-        <v>0.2374329746502752</v>
+        <v>0.1590864804779812</v>
       </c>
       <c r="K23">
-        <v>1.945862514073582</v>
+        <v>0.6484685483081591</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.68021922823209</v>
+        <v>3.152423754391407</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.481157342592809</v>
+        <v>0.5159139294622719</v>
       </c>
       <c r="C24">
-        <v>0.2677828878029231</v>
+        <v>0.08380070705001685</v>
       </c>
       <c r="D24">
-        <v>0.7510691157007727</v>
+        <v>0.6942892372981078</v>
       </c>
       <c r="E24">
-        <v>0.3399344510061724</v>
+        <v>0.2864476995704379</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.446155859894418</v>
+        <v>0.7472118078791397</v>
       </c>
       <c r="H24">
-        <v>0.3431423679738543</v>
+        <v>0.836326868662141</v>
       </c>
       <c r="I24">
-        <v>0.2710106700384998</v>
+        <v>0.6505415882714445</v>
       </c>
       <c r="J24">
-        <v>0.2048689297631796</v>
+        <v>0.1518330047335894</v>
       </c>
       <c r="K24">
-        <v>1.667530503361405</v>
+        <v>0.5645004704302892</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.61304006056281</v>
+        <v>3.175063622819579</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.215127877677588</v>
+        <v>0.4352255861202252</v>
       </c>
       <c r="C25">
-        <v>0.2206993767900229</v>
+        <v>0.06943927557834684</v>
       </c>
       <c r="D25">
-        <v>0.6359676111835313</v>
+        <v>0.6702760621325865</v>
       </c>
       <c r="E25">
-        <v>0.2858989595004147</v>
+        <v>0.2748645655381239</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4206075089339265</v>
+        <v>0.7525529318504312</v>
       </c>
       <c r="H25">
-        <v>0.3433021605627147</v>
+        <v>0.8460651488973383</v>
       </c>
       <c r="I25">
-        <v>0.2798149517456778</v>
+        <v>0.6621032239570113</v>
       </c>
       <c r="J25">
-        <v>0.1708572230165259</v>
+        <v>0.1443030193720745</v>
       </c>
       <c r="K25">
-        <v>1.369102939511549</v>
+        <v>0.4738067166613575</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.558487589763644</v>
+        <v>3.206287348848264</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_70/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_70/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3757806455830632</v>
+        <v>1.020050167277304</v>
       </c>
       <c r="C2">
-        <v>0.05882550405871712</v>
+        <v>0.1861820684651008</v>
       </c>
       <c r="D2">
-        <v>0.6536584357451716</v>
+        <v>0.5538801334126902</v>
       </c>
       <c r="E2">
-        <v>0.2667908287872081</v>
+        <v>0.2473512228584482</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.7580791313857489</v>
+        <v>0.405860764429562</v>
       </c>
       <c r="H2">
-        <v>0.8544282641165424</v>
+        <v>0.345769540614647</v>
       </c>
       <c r="I2">
-        <v>0.6717967527746538</v>
+        <v>0.2889539042901106</v>
       </c>
       <c r="J2">
-        <v>0.1390105253164009</v>
+        <v>0.1465870231312323</v>
       </c>
       <c r="K2">
-        <v>0.4069373316475264</v>
+        <v>1.150265628144865</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.235120941222391</v>
+        <v>1.531824666311707</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3354796680974914</v>
+        <v>0.8880881099844942</v>
       </c>
       <c r="C3">
-        <v>0.05160864674414256</v>
+        <v>0.1628313370178915</v>
       </c>
       <c r="D3">
-        <v>0.6430604655866148</v>
+        <v>0.4996499956365597</v>
       </c>
       <c r="E3">
-        <v>0.261602815138879</v>
+        <v>0.2218727773881142</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7628159505464822</v>
+        <v>0.3981166647895975</v>
       </c>
       <c r="H3">
-        <v>0.8608410223957037</v>
+        <v>0.3487820544476108</v>
       </c>
       <c r="I3">
-        <v>0.6791021183086272</v>
+        <v>0.2966566223627325</v>
       </c>
       <c r="J3">
-        <v>0.1355803821831572</v>
+        <v>0.1305365475526372</v>
       </c>
       <c r="K3">
-        <v>0.3615691372934862</v>
+        <v>1.002221468588772</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.258303670722526</v>
+        <v>1.521310455381922</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.310730474835907</v>
+        <v>0.8071074841157042</v>
       </c>
       <c r="C4">
-        <v>0.04716611989339015</v>
+        <v>0.1484992472875462</v>
       </c>
       <c r="D4">
-        <v>0.6368812712590284</v>
+        <v>0.4669649676908989</v>
       </c>
       <c r="E4">
-        <v>0.2585573361517319</v>
+        <v>0.2065088703021516</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7662127791840945</v>
+        <v>0.3943839178968531</v>
       </c>
       <c r="H4">
-        <v>0.8651462665618084</v>
+        <v>0.3512543944351592</v>
       </c>
       <c r="I4">
-        <v>0.6839504632040629</v>
+        <v>0.3020849384313529</v>
       </c>
       <c r="J4">
-        <v>0.1335514430322533</v>
+        <v>0.1208520606325507</v>
       </c>
       <c r="K4">
-        <v>0.3336912573301447</v>
+        <v>0.9113645662000351</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.274333397602078</v>
+        <v>1.518315013028882</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3006445635429884</v>
+        <v>0.774108461450794</v>
       </c>
       <c r="C5">
-        <v>0.04535299568922824</v>
+        <v>0.1426581170609893</v>
       </c>
       <c r="D5">
-        <v>0.6344458353563311</v>
+        <v>0.453788745011849</v>
       </c>
       <c r="E5">
-        <v>0.2573515281882877</v>
+        <v>0.2003130472902654</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.7677197342942534</v>
+        <v>0.3931075200790559</v>
       </c>
       <c r="H5">
-        <v>0.866993218043973</v>
+        <v>0.3524130447583147</v>
       </c>
       <c r="I5">
-        <v>0.6860174023932828</v>
+        <v>0.3044662908873725</v>
       </c>
       <c r="J5">
-        <v>0.1327440543458209</v>
+        <v>0.1169449213642153</v>
       </c>
       <c r="K5">
-        <v>0.3223260556349317</v>
+        <v>0.8743388747538461</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.281317013569961</v>
+        <v>1.517927028235889</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2989697998208669</v>
+        <v>0.7686287937711995</v>
       </c>
       <c r="C6">
-        <v>0.04505176399733557</v>
+        <v>0.1416881033323421</v>
       </c>
       <c r="D6">
-        <v>0.63404642872473</v>
+        <v>0.4516091856192759</v>
       </c>
       <c r="E6">
-        <v>0.2571534351454687</v>
+        <v>0.1992880171662463</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.7679773722979277</v>
+        <v>0.3929100074966669</v>
       </c>
       <c r="H6">
-        <v>0.8673054928777049</v>
+        <v>0.3526144135303895</v>
       </c>
       <c r="I6">
-        <v>0.6863661232601999</v>
+        <v>0.3048717530922929</v>
       </c>
       <c r="J6">
-        <v>0.1326111613868264</v>
+        <v>0.116298422029125</v>
       </c>
       <c r="K6">
-        <v>0.320438606934772</v>
+        <v>0.868190417111947</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.282503896389159</v>
+        <v>1.51791183485355</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3105944535222704</v>
+        <v>0.8066624554845987</v>
       </c>
       <c r="C7">
-        <v>0.04714167850998763</v>
+        <v>0.1484204771405899</v>
       </c>
       <c r="D7">
-        <v>0.6368480913195071</v>
+        <v>0.4667867026754209</v>
       </c>
       <c r="E7">
-        <v>0.2585409314137124</v>
+        <v>0.2064250545177231</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.7662326057439088</v>
+        <v>0.3943657288892908</v>
       </c>
       <c r="H7">
-        <v>0.8651708004853731</v>
+        <v>0.351269415356569</v>
       </c>
       <c r="I7">
-        <v>0.6839779694535437</v>
+        <v>0.3021163771248077</v>
       </c>
       <c r="J7">
-        <v>0.1335404756562681</v>
+        <v>0.1207992127118516</v>
       </c>
       <c r="K7">
-        <v>0.3335380005069055</v>
+        <v>0.9108652426092476</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.274425753644962</v>
+        <v>1.518306457197156</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3618861230415575</v>
+        <v>0.9745341580127445</v>
       </c>
       <c r="C8">
-        <v>0.05633954143590358</v>
+        <v>0.1781283544129195</v>
       </c>
       <c r="D8">
-        <v>0.6499362681628043</v>
+        <v>0.5350477552497352</v>
       </c>
       <c r="E8">
-        <v>0.2649729759241453</v>
+        <v>0.2385048638383012</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.7596109619683133</v>
+        <v>0.4029708557203122</v>
       </c>
       <c r="H8">
-        <v>0.8565630776064737</v>
+        <v>0.3466756822021821</v>
       </c>
       <c r="I8">
-        <v>0.6742403186285415</v>
+        <v>0.2914607851062847</v>
       </c>
       <c r="J8">
-        <v>0.1378117986937681</v>
+        <v>0.1410152350078135</v>
       </c>
       <c r="K8">
-        <v>0.3912992709146579</v>
+        <v>1.099203913695249</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.242741637947944</v>
+        <v>1.527458066412336</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4624118025501502</v>
+        <v>1.304580477412202</v>
       </c>
       <c r="C9">
-        <v>0.07428318741399664</v>
+        <v>0.2365289278203164</v>
       </c>
       <c r="D9">
-        <v>0.6781998659370458</v>
+        <v>0.6742901106124179</v>
       </c>
       <c r="E9">
-        <v>0.2786956786062476</v>
+        <v>0.3038907772153863</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.7505059007826986</v>
+        <v>0.4285422527288461</v>
       </c>
       <c r="H9">
-        <v>0.8425996096292323</v>
+        <v>0.3428657893580009</v>
       </c>
       <c r="I9">
-        <v>0.6580251738194356</v>
+        <v>0.2764159264235282</v>
       </c>
       <c r="J9">
-        <v>0.1468003282414472</v>
+        <v>0.1821823216300018</v>
       </c>
       <c r="K9">
-        <v>0.5043722343807815</v>
+        <v>1.469448589431835</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.194861364887601</v>
+        <v>1.574644634216213</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5362088511320167</v>
+        <v>1.548344422649507</v>
       </c>
       <c r="C10">
-        <v>0.08740633325083991</v>
+        <v>0.2796781243929729</v>
       </c>
       <c r="D10">
-        <v>0.700545353938594</v>
+        <v>0.7806532556116395</v>
       </c>
       <c r="E10">
-        <v>0.2894539238432117</v>
+        <v>0.353822585618893</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.7461890025880251</v>
+        <v>0.453496325712365</v>
       </c>
       <c r="H10">
-        <v>0.8341160146950699</v>
+        <v>0.3436161650548968</v>
       </c>
       <c r="I10">
-        <v>0.6478699235451835</v>
+        <v>0.2693782047670474</v>
       </c>
       <c r="J10">
-        <v>0.1537785785617984</v>
+        <v>0.2136106667131514</v>
       </c>
       <c r="K10">
-        <v>0.5873014490630908</v>
+        <v>1.742902281278617</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.168382915353362</v>
+        <v>1.62976979091664</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.569763506694926</v>
+        <v>1.65970020589657</v>
       </c>
       <c r="C11">
-        <v>0.0933627681798157</v>
+        <v>0.2993980150880304</v>
       </c>
       <c r="D11">
-        <v>0.711053492435866</v>
+        <v>0.8301088730769095</v>
       </c>
       <c r="E11">
-        <v>0.2944950012080696</v>
+        <v>0.3770402540086053</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.7447419307005703</v>
+        <v>0.4663933945559506</v>
       </c>
       <c r="H11">
-        <v>0.8306416187794383</v>
+        <v>0.3448188696429497</v>
       </c>
       <c r="I11">
-        <v>0.6436322298214208</v>
+        <v>0.267155060947772</v>
       </c>
       <c r="J11">
-        <v>0.1570347245516928</v>
+        <v>0.2282259130938655</v>
       </c>
       <c r="K11">
-        <v>0.6249916142176346</v>
+        <v>1.867827245749311</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.158228605317902</v>
+        <v>1.659915926174818</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5824669272318772</v>
+        <v>1.701950842955085</v>
       </c>
       <c r="C12">
-        <v>0.0956163177064866</v>
+        <v>0.3068818490539229</v>
       </c>
       <c r="D12">
-        <v>0.7150818713779472</v>
+        <v>0.8490068937211959</v>
       </c>
       <c r="E12">
-        <v>0.2964250504884305</v>
+        <v>0.3859127010595742</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7442683835499793</v>
+        <v>0.471517851180522</v>
       </c>
       <c r="H12">
-        <v>0.8293812568708177</v>
+        <v>0.3454063158421974</v>
       </c>
       <c r="I12">
-        <v>0.6420824984156823</v>
+        <v>0.2664634791934866</v>
       </c>
       <c r="J12">
-        <v>0.1582794932083971</v>
+        <v>0.2338115248336265</v>
       </c>
       <c r="K12">
-        <v>0.6392583100661113</v>
+        <v>1.915227812437536</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.154655519383113</v>
+        <v>1.672116676054372</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5797311628316208</v>
+        <v>1.692847477198313</v>
       </c>
       <c r="C13">
-        <v>0.09513106711469277</v>
+        <v>0.3052692903808634</v>
       </c>
       <c r="D13">
-        <v>0.7142121033348019</v>
+        <v>0.8449290222824573</v>
       </c>
       <c r="E13">
-        <v>0.2960084420908444</v>
+        <v>0.3839981499767831</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7443670582206039</v>
+        <v>0.4704031991774684</v>
       </c>
       <c r="H13">
-        <v>0.8296502384961002</v>
+        <v>0.3452737916783519</v>
       </c>
       <c r="I13">
-        <v>0.6424138140508298</v>
+        <v>0.2666055803244376</v>
       </c>
       <c r="J13">
-        <v>0.1580108882044868</v>
+        <v>0.2326061995022002</v>
       </c>
       <c r="K13">
-        <v>0.6361859896439626</v>
+        <v>1.905014760439002</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.155412940681856</v>
+        <v>1.669453174180234</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5708086888566584</v>
+        <v>1.663174442035967</v>
       </c>
       <c r="C14">
-        <v>0.09354821019195469</v>
+        <v>0.3000133676469545</v>
       </c>
       <c r="D14">
-        <v>0.7113839249591365</v>
+        <v>0.8316601148105178</v>
       </c>
       <c r="E14">
-        <v>0.2946533648806948</v>
+        <v>0.3777685357448419</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.7447014793345375</v>
+        <v>0.4668100542898372</v>
       </c>
       <c r="H14">
-        <v>0.8305368195492662</v>
+        <v>0.3448645047996308</v>
       </c>
       <c r="I14">
-        <v>0.6435036300195627</v>
+        <v>0.2670950950610695</v>
       </c>
       <c r="J14">
-        <v>0.1571368972650333</v>
+        <v>0.228684387776795</v>
       </c>
       <c r="K14">
-        <v>0.6261654634562035</v>
+        <v>1.871724922689793</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.157929190186508</v>
+        <v>1.660903619787121</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5653430045993559</v>
+        <v>1.645010092799652</v>
       </c>
       <c r="C15">
-        <v>0.09257839809225743</v>
+        <v>0.2967961917290154</v>
       </c>
       <c r="D15">
-        <v>0.7096579833980741</v>
+        <v>0.8235552021495778</v>
       </c>
       <c r="E15">
-        <v>0.293826087673466</v>
+        <v>0.3739634384979027</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.7449160183097092</v>
+        <v>0.4646410531556171</v>
       </c>
       <c r="H15">
-        <v>0.8310870792203389</v>
+        <v>0.3446312479012619</v>
       </c>
       <c r="I15">
-        <v>0.6441783371168199</v>
+        <v>0.2674148031553258</v>
       </c>
       <c r="J15">
-        <v>0.1566030806950351</v>
+        <v>0.2262889900624998</v>
       </c>
       <c r="K15">
-        <v>0.6200268304409349</v>
+        <v>1.851346762411367</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.159505911837527</v>
+        <v>1.655770742258369</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5340155938061173</v>
+        <v>1.541077747427579</v>
       </c>
       <c r="C16">
-        <v>0.08701678873549668</v>
+        <v>0.2783914872833577</v>
       </c>
       <c r="D16">
-        <v>0.6998655122677064</v>
+        <v>0.777444123797153</v>
       </c>
       <c r="E16">
-        <v>0.2891274333139791</v>
+        <v>0.3523160596545694</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.7462939803667155</v>
+        <v>0.4526861113584744</v>
       </c>
       <c r="H16">
-        <v>0.8343508165737177</v>
+        <v>0.3435555813441056</v>
       </c>
       <c r="I16">
-        <v>0.6481545585987938</v>
+        <v>0.2695439840390215</v>
       </c>
       <c r="J16">
-        <v>0.1535674248348045</v>
+        <v>0.2126623807718744</v>
       </c>
       <c r="K16">
-        <v>0.5848375442858469</v>
+        <v>1.73475030751473</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.169084591874963</v>
+        <v>1.627906384101408</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5147926473535733</v>
+        <v>1.477448761870249</v>
       </c>
       <c r="C17">
-        <v>0.08360142857102915</v>
+        <v>0.267126353602805</v>
       </c>
       <c r="D17">
-        <v>0.693945903573649</v>
+        <v>0.7494418924170532</v>
       </c>
       <c r="E17">
-        <v>0.2862826009600283</v>
+        <v>0.3391705649396783</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.7472717461647704</v>
+        <v>0.4457606262899105</v>
       </c>
       <c r="H17">
-        <v>0.8364515630062925</v>
+        <v>0.3431219240818706</v>
       </c>
       <c r="I17">
-        <v>0.6506917208353471</v>
+        <v>0.2711073634994534</v>
       </c>
       <c r="J17">
-        <v>0.1517260662463542</v>
+        <v>0.204388119713073</v>
       </c>
       <c r="K17">
-        <v>0.5632406186834658</v>
+        <v>1.663370187663105</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.175445260046388</v>
+        <v>1.612149574382215</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5037346533906941</v>
+        <v>1.440893946217386</v>
       </c>
       <c r="C18">
-        <v>0.08163575333061601</v>
+        <v>0.2606553127677529</v>
       </c>
       <c r="D18">
-        <v>0.6905734014506777</v>
+        <v>0.7334354646840779</v>
       </c>
       <c r="E18">
-        <v>0.2846601771544854</v>
+        <v>0.3316564959125898</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.7478827585989904</v>
+        <v>0.441921548773621</v>
       </c>
       <c r="H18">
-        <v>0.8376960804887688</v>
+        <v>0.3429530497426896</v>
       </c>
       <c r="I18">
-        <v>0.6521869795048438</v>
+        <v>0.2720980530753181</v>
       </c>
       <c r="J18">
-        <v>0.1506746566880111</v>
+        <v>0.1996586030943206</v>
       </c>
       <c r="K18">
-        <v>0.5508154123265285</v>
+        <v>1.622362908933411</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.179281712242528</v>
+        <v>1.603560247126524</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4999903766273519</v>
+        <v>1.428524025897019</v>
       </c>
       <c r="C19">
-        <v>0.0809699978681806</v>
+        <v>0.2584656719902938</v>
       </c>
       <c r="D19">
-        <v>0.6894370825580154</v>
+        <v>0.7280326112522459</v>
       </c>
       <c r="E19">
-        <v>0.2841132323397133</v>
+        <v>0.3291201764297753</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.7480979848728282</v>
+        <v>0.4406459433767367</v>
       </c>
       <c r="H19">
-        <v>0.8381236748645193</v>
+        <v>0.3429094681374494</v>
       </c>
       <c r="I19">
-        <v>0.6526994209398751</v>
+        <v>0.2724489129729406</v>
       </c>
       <c r="J19">
-        <v>0.1503199888171594</v>
+        <v>0.19806220033675</v>
       </c>
       <c r="K19">
-        <v>0.5466079199275953</v>
+        <v>1.608486382020118</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.180611227645215</v>
+        <v>1.600731740252201</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5168391193734294</v>
+        <v>1.484217627704595</v>
       </c>
       <c r="C20">
-        <v>0.0839651296534214</v>
+        <v>0.2683246578296519</v>
       </c>
       <c r="D20">
-        <v>0.6945727142106932</v>
+        <v>0.752412343150894</v>
       </c>
       <c r="E20">
-        <v>0.2865840053109281</v>
+        <v>0.3405650179545816</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.7471626276576444</v>
+        <v>0.4464827945871832</v>
       </c>
       <c r="H20">
-        <v>0.8362241861066622</v>
+        <v>0.3431596934534298</v>
       </c>
       <c r="I20">
-        <v>0.6504179144313653</v>
+        <v>0.2709314044073032</v>
       </c>
       <c r="J20">
-        <v>0.1519212860896317</v>
+        <v>0.2052658258657374</v>
       </c>
       <c r="K20">
-        <v>0.5655399876342528</v>
+        <v>1.670963558925791</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.17474973579877</v>
+        <v>1.613777507014333</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5734295227099153</v>
+        <v>1.671887759536901</v>
       </c>
       <c r="C21">
-        <v>0.09401318936772896</v>
+        <v>0.3015566889786498</v>
       </c>
       <c r="D21">
-        <v>0.712213296164748</v>
+        <v>0.8355527580459636</v>
       </c>
       <c r="E21">
-        <v>0.2950508115820227</v>
+        <v>0.379596074966102</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.7446012308053866</v>
+        <v>0.4678587646003507</v>
       </c>
       <c r="H21">
-        <v>0.8302749081064889</v>
+        <v>0.3449810717714854</v>
       </c>
       <c r="I21">
-        <v>0.6431820317044448</v>
+        <v>0.2669471545581636</v>
       </c>
       <c r="J21">
-        <v>0.1573932911540936</v>
+        <v>0.2298348864420632</v>
       </c>
       <c r="K21">
-        <v>0.6291088969975931</v>
+        <v>1.881500247727701</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.157182719359213</v>
+        <v>1.663393057803091</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6103968177155821</v>
+        <v>1.795030702427425</v>
       </c>
       <c r="C22">
-        <v>0.1005683373689408</v>
+        <v>0.3233726791105198</v>
       </c>
       <c r="D22">
-        <v>0.7240289922134195</v>
+        <v>0.8908906278280995</v>
       </c>
       <c r="E22">
-        <v>0.3007073382543766</v>
+        <v>0.4055780362046377</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.7433610885731952</v>
+        <v>0.4832412001354385</v>
       </c>
       <c r="H22">
-        <v>0.8267091273886535</v>
+        <v>0.3469451043531961</v>
       </c>
       <c r="I22">
-        <v>0.6387735242383599</v>
+        <v>0.2652240743791019</v>
       </c>
       <c r="J22">
-        <v>0.161037968238162</v>
+        <v>0.2461930255365843</v>
       </c>
       <c r="K22">
-        <v>0.6706209805712433</v>
+        <v>2.019656587899703</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.147287950124621</v>
+        <v>1.700424618949341</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5906685362753308</v>
+        <v>1.72925673396719</v>
       </c>
       <c r="C23">
-        <v>0.09707084890601436</v>
+        <v>0.3117190641934258</v>
       </c>
       <c r="D23">
-        <v>0.7176965650274951</v>
+        <v>0.8612584852539555</v>
       </c>
       <c r="E23">
-        <v>0.2976771074120421</v>
+        <v>0.3916648941449026</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.7439832345256292</v>
+        <v>0.4748956779904177</v>
       </c>
       <c r="H23">
-        <v>0.8285827578016551</v>
+        <v>0.3458232260585419</v>
       </c>
       <c r="I23">
-        <v>0.6410970755879255</v>
+        <v>0.2660597702377459</v>
       </c>
       <c r="J23">
-        <v>0.1590864804779812</v>
+        <v>0.2374329746502752</v>
       </c>
       <c r="K23">
-        <v>0.6484685483081591</v>
+        <v>1.945862514073752</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.152423754391407</v>
+        <v>1.680219228232204</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5159139294622719</v>
+        <v>1.481157342592695</v>
       </c>
       <c r="C24">
-        <v>0.08380070705001685</v>
+        <v>0.2677828878026105</v>
       </c>
       <c r="D24">
-        <v>0.6942892372981078</v>
+        <v>0.751069115700659</v>
       </c>
       <c r="E24">
-        <v>0.2864476995704379</v>
+        <v>0.3399344510061866</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.7472118078791397</v>
+        <v>0.4461558598944606</v>
       </c>
       <c r="H24">
-        <v>0.836326868662141</v>
+        <v>0.3431423679739964</v>
       </c>
       <c r="I24">
-        <v>0.6505415882714445</v>
+        <v>0.2710106700384962</v>
       </c>
       <c r="J24">
-        <v>0.1518330047335894</v>
+        <v>0.2048689297631938</v>
       </c>
       <c r="K24">
-        <v>0.5645004704302892</v>
+        <v>1.667530503361348</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.175063622819579</v>
+        <v>1.613040060562724</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4352255861202252</v>
+        <v>1.215127877677588</v>
       </c>
       <c r="C25">
-        <v>0.06943927557834684</v>
+        <v>0.2206993767899661</v>
       </c>
       <c r="D25">
-        <v>0.6702760621325865</v>
+        <v>0.6359676111836166</v>
       </c>
       <c r="E25">
-        <v>0.2748645655381239</v>
+        <v>0.2858989595004076</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.7525529318504312</v>
+        <v>0.4206075089339265</v>
       </c>
       <c r="H25">
-        <v>0.8460651488973383</v>
+        <v>0.3433021605626863</v>
       </c>
       <c r="I25">
-        <v>0.6621032239570113</v>
+        <v>0.2798149517456636</v>
       </c>
       <c r="J25">
-        <v>0.1443030193720745</v>
+        <v>0.1708572230165899</v>
       </c>
       <c r="K25">
-        <v>0.4738067166613575</v>
+        <v>1.369102939511606</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.206287348848264</v>
+        <v>1.558487589763587</v>
       </c>
     </row>
   </sheetData>
